--- a/assets/upload/tamplateExcel/tamplateExcel.xlsx
+++ b/assets/upload/tamplateExcel/tamplateExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhammad ravi\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF213DE1-A45E-4D37-B5A6-AEF19FA1D67F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA98EB9D-5305-4BD7-8497-5B4AD91CCBE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{FC79B7D4-C774-423C-9670-7C47AC1DE87C}"/>
+    <workbookView xWindow="0" yWindow="270" windowWidth="20130" windowHeight="10650" activeTab="1" xr2:uid="{FC79B7D4-C774-423C-9670-7C47AC1DE87C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>serial_num_urut</t>
   </si>
@@ -73,12 +73,6 @@
     <t>ur_barang</t>
   </si>
   <si>
-    <t>0302.89.19.20</t>
-  </si>
-  <si>
-    <t>0302.89.19.30</t>
-  </si>
-  <si>
     <t>kd_negara</t>
   </si>
   <si>
@@ -98,6 +92,18 @@
   </si>
   <si>
     <t>IDABU</t>
+  </si>
+  <si>
+    <t>0302.89.19.70</t>
+  </si>
+  <si>
+    <t>0302.89.19.71</t>
+  </si>
+  <si>
+    <t>0302.89.19.72</t>
+  </si>
+  <si>
+    <t>0302.89.19.73</t>
   </si>
 </sst>
 </file>
@@ -449,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF606E6A-3059-4522-AF52-85D5CDDEBF0E}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:O3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,7 +522,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -557,7 +563,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -590,6 +596,88 @@
         <v>1</v>
       </c>
       <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
         <v>1</v>
       </c>
     </row>
@@ -600,49 +688,115 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012124CC-998A-4301-9EA0-6E0D8EA343B3}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
